--- a/TermProject/TermProjectRubric_CS295N.xlsx
+++ b/TermProject/TermProjectRubric_CS295N.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DataCard/Repos/CS295N-CourseMaterials/TermProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0256724-D945-2945-B685-AB00F5E8973C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F214BF7-D654-5246-954C-F5DD5BCF3181}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="23520" windowHeight="14740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Lab3Rubric_CS295N" sheetId="1" r:id="rId1"/>
+    <sheet name="Rubric" sheetId="1" r:id="rId1"/>
     <sheet name="Student Points" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>-----------------------------------</t>
   </si>
@@ -35,67 +35,40 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Subtotal</t>
+    <t>Term Project Rubric</t>
   </si>
   <si>
-    <t>Exercise</t>
+    <t>Excellent work! Everything works correctly.</t>
   </si>
   <si>
-    <t>Part 2, Community Site</t>
+    <t>Can enter and view data</t>
   </si>
   <si>
-    <t>Code quality and style</t>
+    <t>Good coding practices</t>
   </si>
   <si>
-    <t>Used best practices for coding</t>
+    <t>Overall functionality</t>
   </si>
   <si>
-    <t>Followed standard style</t>
+    <t>Running on SmarterASP.NET</t>
   </si>
   <si>
-    <t>Completed code review of site</t>
+    <t>Unit tests passing</t>
   </si>
   <si>
-    <t>Part 1, Chapter 8 exercise</t>
+    <t>Seed Data</t>
   </si>
   <si>
-    <t>Data base stores:</t>
+    <t>Site navigation</t>
   </si>
   <si>
-    <t>Messages</t>
+    <t>Minimum of 4 views</t>
   </si>
   <si>
-    <t>Messaage senders (users)</t>
+    <t>Minimum of 1 model &amp; 7 properties</t>
   </si>
   <si>
-    <t>Message replies</t>
-  </si>
-  <si>
-    <t>DbContext is used in the real repository</t>
-  </si>
-  <si>
-    <t>Group A, Community Site</t>
-  </si>
-  <si>
-    <t>Lab 8 Rubric</t>
-  </si>
-  <si>
-    <t>Excellent work! Good job of adding a database!</t>
-  </si>
-  <si>
-    <t>Group B, Fan Site</t>
-  </si>
-  <si>
-    <t>Part 2, Fan Site</t>
-  </si>
-  <si>
-    <t>Storie</t>
-  </si>
-  <si>
-    <t>Story authors (users)</t>
-  </si>
-  <si>
-    <t>Comments</t>
+    <t>Search</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +985,7 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1022,7 +995,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="19">
       <c r="A1" s="5" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1031,109 +1004,145 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="4" t="s">
-        <v>17</v>
+      <c r="A3" s="12" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="6" t="s">
-        <v>19</v>
+      <c r="A4" s="6"/>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F7" s="11"/>
     </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>40</v>
+      </c>
+      <c r="C8">
+        <v>40</v>
+      </c>
+    </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="4" t="s">
-        <v>6</v>
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
       </c>
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="13">
+      <c r="A11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="13">
-        <v>10</v>
+      <c r="B11">
+        <v>40</v>
+      </c>
+      <c r="C11">
+        <v>40</v>
       </c>
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="13">
-        <v>10</v>
-      </c>
-      <c r="C12" s="13">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>50</v>
+      </c>
+      <c r="C12">
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="13">
         <v>8</v>
       </c>
-      <c r="C13" s="13">
-        <v>8</v>
+      <c r="B13">
+        <v>50</v>
+      </c>
+      <c r="C13">
+        <v>50</v>
       </c>
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="13">
+      <c r="A14" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="13">
-        <v>7</v>
+      <c r="B14" s="12">
+        <v>40</v>
+      </c>
+      <c r="C14" s="12">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="3">
-        <f>SUM(B11:B14)</f>
-        <v>35</v>
-      </c>
-      <c r="C15" s="3">
-        <f>SUM(C11:C14)</f>
-        <v>35</v>
+      <c r="A15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="4">
+        <f>SUM(B5:B14)</f>
+        <v>340</v>
+      </c>
+      <c r="C15" s="4">
+        <f>SUM(C5:C14)</f>
+        <v>340</v>
       </c>
       <c r="D15" s="12"/>
     </row>
@@ -1143,59 +1152,24 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="A17" s="8"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
+      <c r="A19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
+      <c r="A20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="3">
-        <f>SUM(B18:B20)</f>
-        <v>5</v>
-      </c>
-      <c r="C21" s="3">
-        <f>SUM(C18:C20)</f>
-        <v>5</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6">
@@ -1203,17 +1177,9 @@
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="10">
-        <f>SUM(B7,B15,B21)</f>
-        <v>50</v>
-      </c>
-      <c r="C23" s="10">
-        <f>SUM(C7,C15,C21)</f>
-        <v>50</v>
-      </c>
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6">
@@ -1223,182 +1189,66 @@
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A26" s="4"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="A27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1</v>
-      </c>
+      <c r="A29" s="4"/>
       <c r="F29" s="6"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30">
-        <v>10</v>
-      </c>
-      <c r="C30">
-        <v>10</v>
-      </c>
     </row>
     <row r="31" spans="1:6">
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A32" s="4"/>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="34" spans="1:6">
-      <c r="A34" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34">
-        <v>7</v>
-      </c>
-      <c r="C34">
-        <v>7</v>
-      </c>
       <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35">
-        <v>7</v>
-      </c>
-      <c r="C35">
-        <v>7</v>
-      </c>
+      <c r="A35" s="12"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36">
-        <v>6</v>
-      </c>
-      <c r="C36">
-        <v>6</v>
-      </c>
+      <c r="A36" s="12"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37">
-        <v>5</v>
-      </c>
-      <c r="C37">
-        <v>5</v>
-      </c>
+      <c r="A37" s="12"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="3">
-        <f>SUM(B30:B37)</f>
-        <v>35</v>
-      </c>
-      <c r="C38" s="3">
-        <f>SUM(C30:C37)</f>
-        <v>35</v>
-      </c>
+      <c r="A38" s="7"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
     </row>
     <row r="39" spans="1:6">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41">
-        <v>2</v>
-      </c>
-      <c r="C41">
-        <v>2</v>
-      </c>
+      <c r="A40" s="8"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
+      <c r="A42" s="6"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43">
-        <v>2</v>
-      </c>
-      <c r="C43">
-        <v>2</v>
-      </c>
+      <c r="A43" s="6"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="3">
-        <f>SUM(B41:B43)</f>
-        <v>5</v>
-      </c>
-      <c r="C44" s="3">
-        <f>SUM(C41:C43)</f>
-        <v>5</v>
-      </c>
+      <c r="A44" s="2"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B46" s="10">
-        <f>SUM(B30,B38,B44)</f>
-        <v>50</v>
-      </c>
-      <c r="C46" s="10">
-        <f>SUM(C30,C38,C44)</f>
-        <v>50</v>
-      </c>
+      <c r="A46" s="9"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1"/>
@@ -1430,10 +1280,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C8BAC4-7C35-B64C-9C0F-AC9B3324E891}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1443,7 +1293,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="19">
       <c r="A1" s="5" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1452,373 +1302,246 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="4" t="s">
-        <v>17</v>
+      <c r="A3" s="12" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="6" t="s">
-        <v>19</v>
+      <c r="A4" s="6"/>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C7">
-        <v>10</v>
-      </c>
-      <c r="F7" s="6"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>40</v>
+      </c>
+      <c r="C8">
+        <v>40</v>
+      </c>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="6"/>
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>13</v>
+      <c r="A11" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="12" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C12">
-        <v>10</v>
-      </c>
-      <c r="F12" s="6"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="12" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="C13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
+        <v>50</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" s="12" customFormat="1">
+      <c r="A14" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C14">
-        <v>7</v>
-      </c>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="3">
-        <f>SUM(B11:B14)</f>
-        <v>35</v>
-      </c>
-      <c r="C15" s="3">
-        <f>SUM(C11:C14)</f>
-        <v>35</v>
-      </c>
-      <c r="F15" s="6"/>
+      <c r="B14" s="12">
+        <v>40</v>
+      </c>
+      <c r="C14" s="12">
+        <v>40</v>
+      </c>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="1:6" s="4" customFormat="1">
+      <c r="A15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="4">
+        <f>SUM(B5:B14)</f>
+        <v>340</v>
+      </c>
+      <c r="C15" s="4">
+        <f>SUM(C5:C14)</f>
+        <v>340</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="A16" s="8"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="8" t="s">
-        <v>7</v>
-      </c>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="F18" s="6"/>
+      <c r="A18" s="6"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
+      <c r="A19" s="6"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="3">
-        <f>SUM(B18:B20)</f>
-        <v>5</v>
-      </c>
-      <c r="C21" s="3">
-        <f>SUM(C18:C20)</f>
-        <v>5</v>
-      </c>
+      <c r="A21" s="1"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="1"/>
-      <c r="F22" s="6"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="10">
-        <f>SUM(B7,B15,B21)</f>
-        <v>50</v>
-      </c>
-      <c r="C23" s="10">
-        <f>SUM(C7,C15,C21)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="F24" s="6"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="4"/>
+      <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="6"/>
+      <c r="A26" s="6"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6">
+      <c r="A28" s="4"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1</v>
-      </c>
-      <c r="F29" s="6"/>
-    </row>
     <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30">
-        <v>10</v>
-      </c>
-      <c r="C30">
-        <v>10</v>
-      </c>
+      <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6">
+      <c r="A31" s="4"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F32" s="6"/>
-    </row>
     <row r="33" spans="1:6">
-      <c r="A33" t="s">
-        <v>12</v>
-      </c>
+      <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34">
-        <v>7</v>
-      </c>
-      <c r="C34">
-        <v>7</v>
-      </c>
-      <c r="F34" s="6"/>
+      <c r="A34" s="12"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35">
-        <v>7</v>
-      </c>
-      <c r="C35">
-        <v>7</v>
-      </c>
+      <c r="A35" s="12"/>
+      <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36">
-        <v>6</v>
-      </c>
-      <c r="C36">
-        <v>6</v>
-      </c>
+      <c r="A36" s="12"/>
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37">
-        <v>5</v>
-      </c>
-      <c r="C37">
-        <v>5</v>
-      </c>
-      <c r="F37" s="6"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="3">
-        <f>SUM(B30:B37)</f>
-        <v>35</v>
-      </c>
-      <c r="C38" s="3">
-        <f>SUM(C30:C37)</f>
-        <v>35</v>
-      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="A39" s="8"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41">
-        <v>2</v>
-      </c>
-      <c r="C41">
-        <v>2</v>
-      </c>
+      <c r="A41" s="6"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
+      <c r="A42" s="6"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43">
-        <v>2</v>
-      </c>
-      <c r="C43">
-        <v>2</v>
-      </c>
+      <c r="A43" s="2"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="3">
-        <f>SUM(B41:B43)</f>
-        <v>5</v>
-      </c>
-      <c r="C44" s="3">
-        <f>SUM(C41:C43)</f>
-        <v>5</v>
-      </c>
+      <c r="A44" s="1"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B46" s="10">
-        <f>SUM(B30,B38,B44)</f>
-        <v>50</v>
-      </c>
-      <c r="C46" s="10">
-        <f>SUM(C30,C38,C44)</f>
-        <v>50</v>
-      </c>
+      <c r="A45" s="9"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TermProject/TermProjectRubric_CS295N.xlsx
+++ b/TermProject/TermProjectRubric_CS295N.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DataCard/Repos/CS295N-CourseMaterials/TermProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F214BF7-D654-5246-954C-F5DD5BCF3181}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDB758C-CF76-804D-9FF8-2360C09FE8D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23520" windowHeight="14740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23520" windowHeight="14740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>-----------------------------------</t>
   </si>
@@ -50,15 +50,9 @@
     <t>Overall functionality</t>
   </si>
   <si>
-    <t>Running on SmarterASP.NET</t>
-  </si>
-  <si>
     <t>Unit tests passing</t>
   </si>
   <si>
-    <t>Seed Data</t>
-  </si>
-  <si>
     <t>Site navigation</t>
   </si>
   <si>
@@ -69,6 +63,15 @@
   </si>
   <si>
     <t>Search</t>
+  </si>
+  <si>
+    <t>Running on Azure</t>
+  </si>
+  <si>
+    <t>Interactive feature</t>
+  </si>
+  <si>
+    <t>CS295N Term Project Rubric</t>
   </si>
 </sst>
 </file>
@@ -982,10 +985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -995,284 +998,274 @@
   <sheetData>
     <row r="1" spans="1:6" ht="19">
       <c r="A1" s="5" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>0</v>
+      <c r="A2" s="6"/>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="12" t="s">
-        <v>5</v>
-      </c>
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="6"/>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="A4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>30</v>
-      </c>
-      <c r="F5" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B7">
-        <v>30</v>
-      </c>
-      <c r="C7">
-        <v>30</v>
-      </c>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>40</v>
-      </c>
-      <c r="C8">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>20</v>
-      </c>
-      <c r="C9">
-        <v>20</v>
-      </c>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
       <c r="B10">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12">
-        <v>50</v>
-      </c>
-      <c r="C12">
-        <v>50</v>
+      <c r="A12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="12">
+        <v>10</v>
+      </c>
+      <c r="C12" s="12">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13">
-        <v>50</v>
-      </c>
-      <c r="C13">
-        <v>50</v>
-      </c>
-      <c r="F13" s="6"/>
+      <c r="A13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="4">
+        <f>SUM(B3:B12)</f>
+        <v>100</v>
+      </c>
+      <c r="C13" s="4">
+        <f>SUM(C3:C12)</f>
+        <v>100</v>
+      </c>
+      <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="12">
-        <v>40</v>
-      </c>
-      <c r="C14" s="12">
-        <v>40</v>
-      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="4">
-        <f>SUM(B5:B14)</f>
-        <v>340</v>
-      </c>
-      <c r="C15" s="4">
-        <f>SUM(C5:C14)</f>
-        <v>340</v>
-      </c>
-      <c r="D15" s="12"/>
+      <c r="A15" s="8"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="8"/>
+      <c r="A17" s="6"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6">
+      <c r="A18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="6"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="6"/>
+      <c r="A20" s="1"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="1"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6">
+      <c r="A24" s="4"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6">
+      <c r="A25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="4"/>
-      <c r="F26" s="6"/>
-    </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="6"/>
+      <c r="A27" s="4"/>
       <c r="F27" s="6"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="4"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="31" spans="1:6">
-      <c r="F31" s="6"/>
+    <row r="30" spans="1:6">
+      <c r="A30" s="4"/>
+      <c r="F30" s="6"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="4"/>
       <c r="F32" s="6"/>
     </row>
-    <row r="34" spans="1:6">
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="1:6">
+    <row r="33" spans="1:3">
+      <c r="A33" s="12"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="12"/>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="12"/>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="12"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="12"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="7"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="8"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="6"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="6"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="2"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-    </row>
-    <row r="45" spans="1:6">
+    <row r="36" spans="1:3">
+      <c r="A36" s="7"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="8"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="6"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="6"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="9"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="9"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="2"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="4"/>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1"/>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="4"/>
+      <c r="A50" s="1"/>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="2"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-    </row>
-    <row r="55" spans="1:3" s="4" customFormat="1"/>
+      <c r="A51" s="2"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+    </row>
+    <row r="53" spans="1:3" s="4" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1282,8 +1275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C8BAC4-7C35-B64C-9C0F-AC9B3324E891}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1317,95 +1310,95 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>30</v>
-      </c>
-      <c r="F5" s="6"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>6</v>
+      <c r="A6" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="12" t="s">
-        <v>13</v>
+      <c r="A8" t="s">
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>20</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="12" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1413,10 +1406,10 @@
         <v>8</v>
       </c>
       <c r="B13">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F13" s="6"/>
     </row>
@@ -1425,11 +1418,12 @@
         <v>7</v>
       </c>
       <c r="B14" s="12">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C14" s="12">
-        <v>40</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E14"/>
       <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:6" s="4" customFormat="1">
@@ -1438,11 +1432,11 @@
       </c>
       <c r="B15" s="4">
         <f>SUM(B5:B14)</f>
-        <v>340</v>
+        <v>100</v>
       </c>
       <c r="C15" s="4">
         <f>SUM(C5:C14)</f>
-        <v>340</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:6">

--- a/TermProject/TermProjectRubric_CS295N.xlsx
+++ b/TermProject/TermProjectRubric_CS295N.xlsx
@@ -1,27 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DataCard/Repos/CS295N-CourseMaterials/TermProject/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\CS295N-CourseMaterials\TermProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDB758C-CF76-804D-9FF8-2360C09FE8D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0895924E-CD73-4A8A-ACBF-439A4F5D5959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23520" windowHeight="14740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4416" yWindow="2004" windowWidth="15360" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="1" r:id="rId1"/>
     <sheet name="Student Points" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>-----------------------------------</t>
   </si>
@@ -68,10 +81,22 @@
     <t>Running on Azure</t>
   </si>
   <si>
-    <t>Interactive feature</t>
-  </si>
-  <si>
     <t>CS295N Term Project Rubric</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (7 * 3)</t>
+  </si>
+  <si>
+    <t>(4 * 6)</t>
+  </si>
+  <si>
+    <t>Interactive logical processing feature</t>
   </si>
 </sst>
 </file>
@@ -609,7 +634,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -628,8 +653,10 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -987,18 +1014,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C13"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="44.33203125" customWidth="1"/>
+    <col min="1" max="1" width="32.5" customWidth="1"/>
+    <col min="2" max="2" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19">
+    <row r="1" spans="1:6" ht="18">
       <c r="A1" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1006,42 +1034,37 @@
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>7</v>
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
       </c>
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="12" t="s">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="18">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17.399999999999999">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F5" s="11"/>
     </row>
@@ -1050,10 +1073,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1061,68 +1081,50 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B8">
-        <v>15</v>
-      </c>
-      <c r="C8">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="12" t="s">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="12" t="s">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="12" t="s">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="12">
-        <v>10</v>
-      </c>
-      <c r="C12" s="12">
-        <v>10</v>
+      <c r="B12">
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1131,13 +1133,9 @@
       </c>
       <c r="B13" s="4">
         <f>SUM(B3:B12)</f>
-        <v>100</v>
-      </c>
-      <c r="C13" s="4">
-        <f>SUM(C3:C12)</f>
-        <v>100</v>
-      </c>
-      <c r="D13" s="12"/>
+        <v>340</v>
+      </c>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" s="3"/>
@@ -1202,15 +1200,6 @@
     </row>
     <row r="32" spans="1:6">
       <c r="F32" s="6"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="12"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="12"/>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="12"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="7"/>
@@ -1275,16 +1264,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C8BAC4-7C35-B64C-9C0F-AC9B3324E891}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="39.83203125" customWidth="1"/>
+    <col min="1" max="1" width="30.296875" customWidth="1"/>
+    <col min="2" max="2" width="7.8984375" customWidth="1"/>
+    <col min="3" max="3" width="5.8984375" customWidth="1"/>
+    <col min="4" max="4" width="1.8984375" customWidth="1"/>
+    <col min="5" max="5" width="7.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19">
+    <row r="1" spans="1:6" ht="18">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -1295,7 +1288,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="12" t="s">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1313,21 +1306,21 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="12" t="s">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F6" s="6"/>
     </row>
@@ -1336,10 +1329,10 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1347,10 +1340,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F8" s="6"/>
     </row>
@@ -1359,72 +1352,77 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
       </c>
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="12" t="s">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="12" t="s">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="12" t="s">
+      <c r="A13" t="s">
         <v>8</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6" s="12" customFormat="1">
-      <c r="A14" s="13" t="s">
+    <row r="14" spans="1:6">
+      <c r="A14" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="12">
-        <v>10</v>
-      </c>
-      <c r="C14" s="12">
-        <v>10</v>
-      </c>
-      <c r="E14"/>
-      <c r="F14" s="13"/>
+      <c r="B14">
+        <v>35</v>
+      </c>
+      <c r="C14">
+        <v>33</v>
+      </c>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:6" s="4" customFormat="1">
       <c r="A15" s="4" t="s">
@@ -1432,11 +1430,18 @@
       </c>
       <c r="B15" s="4">
         <f>SUM(B5:B14)</f>
-        <v>100</v>
+        <v>340</v>
       </c>
       <c r="C15" s="4">
         <f>SUM(C5:C14)</f>
-        <v>100</v>
+        <v>248</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="14">
+        <f>C15/B15</f>
+        <v>0.72941176470588232</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1495,15 +1500,10 @@
     <row r="33" spans="1:6">
       <c r="F33" s="6"/>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="12"/>
-    </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="12"/>
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="12"/>
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:6">
@@ -1539,5 +1539,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TermProject/TermProjectRubric_CS295N.xlsx
+++ b/TermProject/TermProjectRubric_CS295N.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\CS295N-CourseMaterials\TermProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0895924E-CD73-4A8A-ACBF-439A4F5D5959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A774F86F-F6D3-4DDB-8093-F4B375E4586D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4416" yWindow="2004" windowWidth="15360" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30696" yWindow="4248" windowWidth="12636" windowHeight="12132" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>-----------------------------------</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>CS295N Term Project Rubric</t>
-  </si>
-  <si>
-    <t>None</t>
   </si>
   <si>
     <t>=</t>
@@ -1044,7 +1041,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="6"/>
     </row>
@@ -1056,7 +1053,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.399999999999999">
@@ -1087,7 +1084,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>40</v>
@@ -1265,7 +1262,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1361,16 +1358,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>40</v>
       </c>
       <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F10" s="6"/>
     </row>
@@ -1382,11 +1376,9 @@
         <v>50</v>
       </c>
       <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>16</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E11" s="15"/>
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6">
@@ -1420,7 +1412,7 @@
         <v>35</v>
       </c>
       <c r="C14">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F14" s="12"/>
     </row>
@@ -1434,14 +1426,14 @@
       </c>
       <c r="C15" s="4">
         <f>SUM(C5:C14)</f>
-        <v>248</v>
+        <v>340</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15" s="14">
         <f>C15/B15</f>
-        <v>0.72941176470588232</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6">

--- a/TermProject/TermProjectRubric_CS295N.xlsx
+++ b/TermProject/TermProjectRubric_CS295N.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\CS295N-CourseMaterials\TermProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A774F86F-F6D3-4DDB-8093-F4B375E4586D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB790D22-6551-4086-B2EC-EDDBEF3AB14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30696" yWindow="4248" windowWidth="12636" windowHeight="12132" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41295" yWindow="5370" windowWidth="14790" windowHeight="10665" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="1" r:id="rId1"/>
@@ -84,9 +84,6 @@
     <t>CS295N Term Project Rubric</t>
   </si>
   <si>
-    <t>=</t>
-  </si>
-  <si>
     <t xml:space="preserve"> (7 * 3)</t>
   </si>
   <si>
@@ -94,13 +91,16 @@
   </si>
   <si>
     <t>Interactive logical processing feature</t>
+  </si>
+  <si>
+    <t>Comment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -285,6 +285,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -631,7 +639,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -652,8 +660,21 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -713,9 +734,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -753,7 +774,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -859,7 +880,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1001,7 +1022,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1041,7 +1062,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="6"/>
     </row>
@@ -1053,7 +1074,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.399999999999999">
@@ -1084,7 +1105,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>40</v>
@@ -1262,7 +1283,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1271,7 +1292,7 @@
     <col min="2" max="2" width="7.8984375" customWidth="1"/>
     <col min="3" max="3" width="5.8984375" customWidth="1"/>
     <col min="4" max="4" width="1.8984375" customWidth="1"/>
-    <col min="5" max="5" width="7.8984375" customWidth="1"/>
+    <col min="5" max="5" width="16.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18">
@@ -1285,17 +1306,25 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="6"/>
-      <c r="B4" t="s">
+      <c r="B4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="19" t="s">
         <v>1</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1308,6 +1337,7 @@
       <c r="C5">
         <v>21</v>
       </c>
+      <c r="E5" s="16"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
@@ -1319,6 +1349,7 @@
       <c r="C6">
         <v>24</v>
       </c>
+      <c r="E6" s="16"/>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6">
@@ -1331,6 +1362,7 @@
       <c r="C7">
         <v>20</v>
       </c>
+      <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
@@ -1342,6 +1374,7 @@
       <c r="C8">
         <v>50</v>
       </c>
+      <c r="E8" s="16"/>
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6">
@@ -1354,11 +1387,12 @@
       <c r="C9">
         <v>30</v>
       </c>
+      <c r="E9" s="16"/>
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>40</v>
@@ -1366,6 +1400,7 @@
       <c r="C10">
         <v>40</v>
       </c>
+      <c r="E10" s="16"/>
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6">
@@ -1378,7 +1413,7 @@
       <c r="C11">
         <v>50</v>
       </c>
-      <c r="E11" s="15"/>
+      <c r="E11" s="17"/>
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6">
@@ -1391,6 +1426,7 @@
       <c r="C12">
         <v>35</v>
       </c>
+      <c r="E12" s="16"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
@@ -1402,6 +1438,7 @@
       <c r="C13">
         <v>35</v>
       </c>
+      <c r="E13" s="16"/>
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6">
@@ -1414,33 +1451,34 @@
       <c r="C14">
         <v>35</v>
       </c>
+      <c r="E14" s="16"/>
       <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:6" s="4" customFormat="1">
-      <c r="A15" s="4" t="s">
+      <c r="D15" s="13"/>
+      <c r="E15" s="18"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B16" s="4">
         <f>SUM(B5:B14)</f>
         <v>340</v>
       </c>
-      <c r="C15" s="4">
-        <f>SUM(C5:C14)</f>
+      <c r="C16" s="4">
+        <f>SUM(C5:C15)</f>
         <v>340</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="14">
-        <f>C15/B15</f>
+      <c r="E16" s="16"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="C17" s="14">
+        <f>C16/B16</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="8"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="D17" s="15"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6">
@@ -1530,6 +1568,10 @@
       <c r="C45" s="10"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A3:E3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
